--- a/data_exploration/acl/tag_stats/tag_stats_introflexive.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_introflexive.xlsx
@@ -1659,7 +1659,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q21">
         <v>0</v>

--- a/data_exploration/acl/tag_stats/tag_stats_introflexive.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_introflexive.xlsx
@@ -2599,7 +2599,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>0</v>
